--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51050.43805390925</v>
+        <v>-55577.76555306633</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>9952625.174281187</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22317222.39794713</v>
+        <v>24228257.79850691</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4316302.411002076</v>
+        <v>3353925.043955521</v>
       </c>
     </row>
     <row r="11">
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8772,16 +8772,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -9246,7 +9246,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>51.84373129681028</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>150.3839754851235</v>
@@ -9480,25 +9480,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -9723,19 +9723,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9881,16 +9881,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>150.3839754851235</v>
@@ -9960,13 +9960,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>65.92768427608706</v>
@@ -10115,7 +10115,7 @@
         <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>113.4004983079896</v>
@@ -10124,13 +10124,13 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10197,16 +10197,16 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10273,7 +10273,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>92.09541281912071</v>
@@ -10285,7 +10285,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10358,10 +10358,10 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>135.4597561231036</v>
@@ -10431,19 +10431,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10589,19 +10589,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10671,13 +10671,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
@@ -10823,22 +10823,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>150.3839754851235</v>
@@ -10905,19 +10905,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>94.49434172313325</v>
@@ -11060,25 +11060,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,25 +11139,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11230,10 +11230,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23042,31 +23042,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23364,16 +23364,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23838,7 +23838,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23990,25 +23990,25 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -24072,25 +24072,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24227,28 +24227,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24306,7 +24306,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24315,19 +24315,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24473,16 +24473,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24552,13 +24552,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -24707,7 +24707,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,13 +24716,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24789,16 +24789,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -24865,7 +24865,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>61.14583096471014</v>
@@ -24950,10 +24950,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -25023,19 +25023,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25181,19 +25181,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25263,13 +25263,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25415,22 +25415,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25497,19 +25497,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25652,25 +25652,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25731,25 +25731,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25822,10 +25822,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25886,28 +25886,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25965,28 +25965,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26047,22 +26047,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>376275.9193600624</v>
+        <v>122182.3003161621</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>372285.8090440775</v>
+        <v>359609.6638911609</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>372285.8090440775</v>
+        <v>367746.1291139937</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372285.8090440775</v>
+        <v>236841.9271641456</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372285.8090440775</v>
+        <v>237749.8553270187</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372285.8090440775</v>
+        <v>310193.3357492931</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>372285.8090440775</v>
+        <v>273881.3867213849</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372285.8090440775</v>
+        <v>322893.6518670669</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372285.8090440775</v>
+        <v>276588.62036411</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372285.8090440775</v>
+        <v>248299.9633060175</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372285.8090440775</v>
+        <v>206073.1394138055</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>372285.8090440775</v>
+        <v>171635.0652189153</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
-        <v>59129.07304229552</v>
+        <v>19200.07576396833</v>
       </c>
       <c r="E2" t="n">
-        <v>62876.30148242498</v>
+        <v>60884.33581553809</v>
       </c>
       <c r="F2" t="n">
         <v>62876.30148242498</v>
       </c>
       <c r="G2" t="n">
-        <v>62876.30148242498</v>
+        <v>62162.92320769752</v>
       </c>
       <c r="H2" t="n">
-        <v>62876.30148242498</v>
+        <v>41592.26290129285</v>
       </c>
       <c r="I2" t="n">
-        <v>62876.30148242498</v>
+        <v>41734.93732688719</v>
       </c>
       <c r="J2" t="n">
-        <v>62876.30148242498</v>
+        <v>53118.91282181603</v>
       </c>
       <c r="K2" t="n">
-        <v>62876.30148242498</v>
+        <v>47412.74940314475</v>
       </c>
       <c r="L2" t="n">
-        <v>62876.30148242498</v>
+        <v>55114.67678318048</v>
       </c>
       <c r="M2" t="n">
-        <v>62876.30148242498</v>
+        <v>47838.17183271584</v>
       </c>
       <c r="N2" t="n">
-        <v>62876.30148242498</v>
+        <v>43392.81143787273</v>
       </c>
       <c r="O2" t="n">
-        <v>62876.30148242498</v>
+        <v>36757.16768338226</v>
       </c>
       <c r="P2" t="n">
-        <v>62876.30148242498</v>
+        <v>31345.47030989951</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>58383.5376633838</v>
+        <v>19200.07576396833</v>
       </c>
       <c r="E4" t="n">
-        <v>34598.38391202978</v>
+        <v>33048.22633509297</v>
       </c>
       <c r="F4" t="n">
-        <v>34598.38391202978</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="G4" t="n">
-        <v>34598.38391202978</v>
+        <v>34326.8137272524</v>
       </c>
       <c r="H4" t="n">
-        <v>34598.38391202978</v>
+        <v>13756.15342084774</v>
       </c>
       <c r="I4" t="n">
-        <v>34598.38391202978</v>
+        <v>13898.82784644208</v>
       </c>
       <c r="J4" t="n">
-        <v>34598.38391202978</v>
+        <v>25282.80334137092</v>
       </c>
       <c r="K4" t="n">
-        <v>34598.38391202978</v>
+        <v>19576.63992269963</v>
       </c>
       <c r="L4" t="n">
-        <v>34598.38391202978</v>
+        <v>27278.56730273538</v>
       </c>
       <c r="M4" t="n">
-        <v>34598.38391202978</v>
+        <v>20002.06235227072</v>
       </c>
       <c r="N4" t="n">
-        <v>34598.38391202978</v>
+        <v>15556.70195742761</v>
       </c>
       <c r="O4" t="n">
-        <v>34598.38391202978</v>
+        <v>8921.058202937158</v>
       </c>
       <c r="P4" t="n">
-        <v>34598.38391202978</v>
+        <v>3509.360829454395</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32882.06462108828</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-32882.06462108828</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>-32882.06462108828</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>-108433.6945346132</v>
+        <v>-108875.5026245632</v>
       </c>
       <c r="F6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543679</v>
       </c>
       <c r="G6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543679</v>
       </c>
       <c r="H6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543679</v>
       </c>
       <c r="I6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543679</v>
       </c>
       <c r="J6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543679</v>
       </c>
       <c r="K6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543679</v>
       </c>
       <c r="L6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543678</v>
       </c>
       <c r="M6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.4973754368</v>
       </c>
       <c r="N6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543679</v>
       </c>
       <c r="O6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543678</v>
       </c>
       <c r="P6" t="n">
-        <v>24666.30546538687</v>
+        <v>24224.49737543679</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55577.76555306633</v>
+        <v>-41851.40741564831</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9952625.174281187</v>
+        <v>11419138.37511384</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24228257.79850691</v>
+        <v>25694770.99933958</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3353925.043955521</v>
+        <v>2572825.466033043</v>
       </c>
     </row>
     <row r="11">
@@ -8541,7 +8543,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8696,13 +8698,13 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8769,7 +8771,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>94.49434172313325</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,25 +9008,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,13 +9093,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,16 +9327,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,13 +9649,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,19 +9798,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>101.5955875616828</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,10 +9956,10 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,19 +10272,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10586,7 +10588,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11218,16 +11220,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11467,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23133,7 +23135,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -23288,13 +23290,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23361,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
         <v>61.18167021676314</v>
@@ -23370,13 +23372,13 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23516,28 +23518,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>108.0327934026353</v>
@@ -23598,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23683,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23753,28 +23755,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>108.0327934026353</v>
@@ -23832,28 +23834,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
         <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>78.03303713061706</v>
@@ -23917,16 +23919,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23993,7 +23995,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
         <v>130.6648563030561</v>
@@ -24005,13 +24007,13 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24069,7 +24071,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -24151,22 +24153,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24230,7 +24232,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
         <v>130.6648563030561</v>
@@ -24239,13 +24241,13 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
@@ -24306,19 +24308,19 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
         <v>57.81213424001893</v>
@@ -24327,10 +24329,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24388,19 +24390,19 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -24464,19 +24466,19 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
         <v>117.8828208804077</v>
@@ -24485,7 +24487,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24546,10 +24548,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
         <v>51.84373129681028</v>
@@ -24561,10 +24563,10 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24622,28 +24624,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24701,19 +24703,19 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
         <v>117.8828208804077</v>
@@ -24722,7 +24724,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24780,13 +24782,13 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
@@ -24801,7 +24803,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>78.03303713061706</v>
@@ -24862,19 +24864,19 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
         <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
         <v>101.5955875616828</v>
@@ -24938,16 +24940,16 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
         <v>110.5750244233121</v>
@@ -25017,10 +25019,10 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
         <v>61.18167021676314</v>
@@ -25029,7 +25031,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
         <v>57.81213424001893</v>
@@ -25038,7 +25040,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25099,22 +25101,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>61.14583096471014</v>
@@ -25178,7 +25180,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
         <v>130.6648563030561</v>
@@ -25196,7 +25198,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>108.0327934026353</v>
@@ -25254,13 +25256,13 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
         <v>51.84373129681028</v>
@@ -25272,10 +25274,10 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25336,22 +25338,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>61.14583096471014</v>
@@ -25412,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25433,7 +25435,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>108.0327934026353</v>
@@ -25491,10 +25493,10 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
         <v>61.18167021676314</v>
@@ -25512,7 +25514,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25573,22 +25575,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>61.14583096471014</v>
@@ -25649,7 +25651,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25810,16 +25812,16 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
         <v>96.22962838366004</v>
@@ -25886,7 +25888,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -25907,7 +25909,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25983,7 +25985,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
         <v>94.49434172313325</v>
@@ -26059,7 +26061,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>101.5955875616828</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>122182.3003161621</v>
+        <v>112436.7452795787</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>359609.6638911609</v>
+        <v>298270.0678901312</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>372285.8090440775</v>
+        <v>204923.3341081312</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>367746.1291139937</v>
+        <v>174971.012738225</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>236841.9271641456</v>
+        <v>183164.3079942704</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>237749.8553270187</v>
+        <v>200426.8214539583</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>310193.3357492931</v>
+        <v>173367.371443546</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>273881.3867213849</v>
+        <v>187691.7188307073</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>322893.6518670669</v>
+        <v>210602.9072507693</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>276588.62036411</v>
+        <v>184088.7331047946</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>248299.9633060175</v>
+        <v>166743.2310456297</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>206073.1394138055</v>
+        <v>173656.4904925629</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>171635.0652189153</v>
+        <v>209078.865281986</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="C2" t="n">
         <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
-        <v>19200.07576396833</v>
+        <v>17668.63140107667</v>
       </c>
       <c r="E2" t="n">
-        <v>60884.33581553809</v>
+        <v>51245.25644394772</v>
       </c>
       <c r="F2" t="n">
-        <v>62876.30148242498</v>
+        <v>36576.48399249056</v>
       </c>
       <c r="G2" t="n">
-        <v>62162.92320769752</v>
+        <v>31869.69063436245</v>
       </c>
       <c r="H2" t="n">
-        <v>41592.26290129285</v>
+        <v>33157.20846031245</v>
       </c>
       <c r="I2" t="n">
-        <v>41734.93732688719</v>
+        <v>35869.88914683484</v>
       </c>
       <c r="J2" t="n">
-        <v>53118.91282181603</v>
+        <v>31617.68985948432</v>
       </c>
       <c r="K2" t="n">
-        <v>47412.74940314475</v>
+        <v>33868.65873460967</v>
       </c>
       <c r="L2" t="n">
-        <v>55114.67678318048</v>
+        <v>37468.98834347657</v>
       </c>
       <c r="M2" t="n">
-        <v>47838.17183271584</v>
+        <v>33302.47526339482</v>
       </c>
       <c r="N2" t="n">
-        <v>43392.81143787273</v>
+        <v>30576.75351124032</v>
       </c>
       <c r="O2" t="n">
-        <v>36757.16768338226</v>
+        <v>31663.12285290125</v>
       </c>
       <c r="P2" t="n">
-        <v>31345.47030989951</v>
+        <v>37229.49603409633</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>19200.07576396833</v>
+        <v>17668.63140107667</v>
       </c>
       <c r="E4" t="n">
-        <v>33048.22633509297</v>
+        <v>23409.14696350262</v>
       </c>
       <c r="F4" t="n">
-        <v>35040.19200197986</v>
+        <v>8740.374512045459</v>
       </c>
       <c r="G4" t="n">
-        <v>34326.8137272524</v>
+        <v>4033.581153917346</v>
       </c>
       <c r="H4" t="n">
-        <v>13756.15342084774</v>
+        <v>5321.098979867344</v>
       </c>
       <c r="I4" t="n">
-        <v>13898.82784644208</v>
+        <v>8033.779666389733</v>
       </c>
       <c r="J4" t="n">
-        <v>25282.80334137092</v>
+        <v>3781.580379039219</v>
       </c>
       <c r="K4" t="n">
-        <v>19576.63992269963</v>
+        <v>6032.549254164574</v>
       </c>
       <c r="L4" t="n">
-        <v>27278.56730273538</v>
+        <v>9632.878863031467</v>
       </c>
       <c r="M4" t="n">
-        <v>20002.06235227072</v>
+        <v>5466.365782949722</v>
       </c>
       <c r="N4" t="n">
-        <v>15556.70195742761</v>
+        <v>2740.64403079522</v>
       </c>
       <c r="O4" t="n">
-        <v>8921.058202937158</v>
+        <v>3827.013372456156</v>
       </c>
       <c r="P4" t="n">
-        <v>3509.360829454395</v>
+        <v>9393.386553651231</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-33627.60000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.59999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-108875.5026245632</v>
+        <v>-108875.5026245633</v>
       </c>
       <c r="F6" t="n">
-        <v>24224.49737543679</v>
+        <v>24224.49737543678</v>
       </c>
       <c r="G6" t="n">
-        <v>24224.49737543679</v>
+        <v>24224.49737543678</v>
       </c>
       <c r="H6" t="n">
-        <v>24224.49737543679</v>
+        <v>24224.49737543678</v>
       </c>
       <c r="I6" t="n">
-        <v>24224.49737543679</v>
+        <v>24224.49737543678</v>
       </c>
       <c r="J6" t="n">
-        <v>24224.49737543679</v>
+        <v>24224.49737543677</v>
       </c>
       <c r="K6" t="n">
-        <v>24224.49737543679</v>
+        <v>24224.49737543677</v>
       </c>
       <c r="L6" t="n">
+        <v>24224.49737543677</v>
+      </c>
+      <c r="M6" t="n">
         <v>24224.49737543678</v>
       </c>
-      <c r="M6" t="n">
-        <v>24224.4973754368</v>
-      </c>
       <c r="N6" t="n">
-        <v>24224.49737543679</v>
+        <v>24224.49737543677</v>
       </c>
       <c r="O6" t="n">
-        <v>24224.49737543678</v>
+        <v>24224.49737543677</v>
       </c>
       <c r="P6" t="n">
-        <v>24224.49737543679</v>
+        <v>24224.49737543677</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41851.40741564831</v>
+        <v>-166961.3062131248</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11419138.37511384</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25694770.99933958</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2572825.466033043</v>
+        <v>4316302.411002076</v>
       </c>
     </row>
     <row r="11">
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8698,13 +8698,13 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
@@ -8771,22 +8771,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
         <v>94.49434172313325</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,25 +9008,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9093,13 +9093,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9327,16 +9327,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,28 +9719,28 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
         <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,19 +9798,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
         <v>101.5955875616828</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,25 +9956,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
         <v>135.4597561231036</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10588,25 +10588,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,25 +11141,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11299,22 +11299,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
         <v>150.3839754851235</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23044,31 +23044,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23135,7 +23135,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -23290,13 +23290,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23363,22 +23363,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23518,28 +23518,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>108.0327934026353</v>
@@ -23600,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23685,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23755,28 +23755,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>108.0327934026353</v>
@@ -23834,28 +23834,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>78.03303713061706</v>
@@ -23919,16 +23919,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23992,28 +23992,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24071,28 +24071,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24153,22 +24153,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24229,28 +24229,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24311,28 +24311,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24390,19 +24390,19 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -24466,28 +24466,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24548,25 +24548,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24624,28 +24624,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24703,25 +24703,25 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24782,28 +24782,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>78.03303713061706</v>
@@ -24864,22 +24864,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>61.14583096471014</v>
@@ -24940,22 +24940,22 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -25019,28 +25019,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25101,22 +25101,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>61.14583096471014</v>
@@ -25180,25 +25180,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>108.0327934026353</v>
@@ -25256,28 +25256,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25338,22 +25338,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>61.14583096471014</v>
@@ -25414,28 +25414,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>108.0327934026353</v>
@@ -25493,28 +25493,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25575,22 +25575,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>61.14583096471014</v>
@@ -25651,28 +25651,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25733,25 +25733,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25812,22 +25812,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25891,22 +25891,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -25967,28 +25967,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26049,22 +26049,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>112436.7452795787</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>298270.0678901312</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>204923.3341081312</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>174971.012738225</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>183164.3079942704</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>200426.8214539583</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>173367.371443546</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>187691.7188307073</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>210602.9072507693</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>184088.7331047946</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>166743.2310456297</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173656.4904925629</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>209078.865281986</v>
+        <v>372285.8090440775</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59129.07304229551</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
+        <v>59129.07304229553</v>
+      </c>
+      <c r="D2" t="n">
         <v>59129.07304229552</v>
       </c>
-      <c r="D2" t="n">
-        <v>17668.63140107667</v>
-      </c>
       <c r="E2" t="n">
-        <v>51245.25644394772</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="F2" t="n">
-        <v>36576.48399249056</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="G2" t="n">
-        <v>31869.69063436245</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="H2" t="n">
-        <v>33157.20846031245</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="I2" t="n">
-        <v>35869.88914683484</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="J2" t="n">
-        <v>31617.68985948432</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="K2" t="n">
-        <v>33868.65873460967</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="L2" t="n">
-        <v>37468.98834347657</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="M2" t="n">
-        <v>33302.47526339482</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="N2" t="n">
-        <v>30576.75351124032</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="O2" t="n">
-        <v>31663.12285290125</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="P2" t="n">
-        <v>37229.49603409633</v>
+        <v>62876.30148242498</v>
       </c>
     </row>
     <row r="3">
@@ -26423,43 +26423,43 @@
         <v>59129.07304229552</v>
       </c>
       <c r="D4" t="n">
-        <v>17668.63140107667</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E4" t="n">
-        <v>23409.14696350262</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="F4" t="n">
-        <v>8740.374512045459</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="G4" t="n">
-        <v>4033.581153917346</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="H4" t="n">
-        <v>5321.098979867344</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="I4" t="n">
-        <v>8033.779666389733</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="J4" t="n">
-        <v>3781.580379039219</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="K4" t="n">
-        <v>6032.549254164574</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="L4" t="n">
-        <v>9632.878863031467</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="M4" t="n">
-        <v>5466.365782949722</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="N4" t="n">
-        <v>2740.64403079522</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="O4" t="n">
-        <v>3827.013372456156</v>
+        <v>35040.19200197986</v>
       </c>
       <c r="P4" t="n">
-        <v>9393.386553651231</v>
+        <v>35040.19200197986</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.60000000001</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>-108875.5026245633</v>
+        <v>-123685.5194636771</v>
       </c>
       <c r="F6" t="n">
-        <v>24224.49737543678</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="G6" t="n">
-        <v>24224.49737543678</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="H6" t="n">
-        <v>24224.49737543678</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="I6" t="n">
-        <v>24224.49737543678</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="J6" t="n">
-        <v>24224.49737543677</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="K6" t="n">
-        <v>24224.49737543677</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="L6" t="n">
-        <v>24224.49737543677</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="M6" t="n">
-        <v>24224.49737543678</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="N6" t="n">
-        <v>24224.49737543677</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="O6" t="n">
-        <v>24224.49737543677</v>
+        <v>9414.480536322892</v>
       </c>
       <c r="P6" t="n">
-        <v>24224.49737543677</v>
+        <v>9414.480536322892</v>
       </c>
     </row>
   </sheetData>
